--- a/Table/C 场景配置表.xlsx
+++ b/Table/C 场景配置表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\U3D\Unit3d_Test.git\trunk\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -27,14 +32,6 @@
     <t>场景名字</t>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登入场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,12 +43,19 @@
     <t>blackdoor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>野外场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,19 +402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,32 +425,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>102</v>
@@ -452,12 +464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -466,12 +478,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/C 场景配置表.xlsx
+++ b/Table/C 场景配置表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\U3D\Unit3d_Test.git\trunk\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\trunk\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CDDD64-52A5-4D41-AF11-EBB931853761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-240" yWindow="600" windowWidth="29040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>场景id</t>
   </si>
@@ -48,14 +49,38 @@
   </si>
   <si>
     <t>野外场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +94,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,12 +146,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,6 +264,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -227,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,69 +508,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <pane xSplit="13" ySplit="20" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="14.625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="6">
         <v>10001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6">
         <v>10002</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="6">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -478,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
